--- a/data/trans_bre/P5_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P5_R-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-20,87; 25,36</t>
+          <t>-21,33; 24,7</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-27,14; 31,28</t>
+          <t>-25,32; 34,4</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-55,59; 6,72</t>
+          <t>-54,5; 7,09</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-62,05; 202,05</t>
+          <t>-61,49; 208,49</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-62,58; 231,15</t>
+          <t>-58,02; 228,85</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-88,57; 27,28</t>
+          <t>-87,99; 23,67</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-12,95; 9,53</t>
+          <t>-12,61; 9,77</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-15,34; 7,88</t>
+          <t>-15,32; 8,45</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-9,81; 14,3</t>
+          <t>-9,74; 15,31</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,61; 7,01</t>
+          <t>-3,96; 8,01</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-33,74; 31,96</t>
+          <t>-32,64; 34,17</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-35,92; 24,43</t>
+          <t>-34,56; 27,04</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-23,55; 47,55</t>
+          <t>-23,52; 52,31</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-56,7; 213,98</t>
+          <t>-49,97; 274,13</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-19,44; -2,04</t>
+          <t>-18,9; -1,19</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,8; 9,51</t>
+          <t>-8,59; 9,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-12,93; 4,71</t>
+          <t>-12,95; 3,67</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,61; 11,54</t>
+          <t>0,97; 11,62</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-49,88; -6,06</t>
+          <t>-49,31; -3,3</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-26,33; 38,24</t>
+          <t>-25,29; 38,3</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-32,09; 15,79</t>
+          <t>-33,35; 11,68</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,12; 151,17</t>
+          <t>4,86; 147,47</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,27; 13,04</t>
+          <t>-4,59; 12,52</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-12,22; 8,57</t>
+          <t>-12,16; 8,36</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-10,35; 7,73</t>
+          <t>-11,37; 7,23</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,49; 17,12</t>
+          <t>-5,98; 16,34</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-17,79; 77,05</t>
+          <t>-17,46; 76,7</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-29,86; 29,85</t>
+          <t>-30,38; 27,34</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-25,69; 23,18</t>
+          <t>-26,57; 22,28</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-25,76; 114,71</t>
+          <t>-29,68; 102,96</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 15,26</t>
+          <t>-2,36; 14,08</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,68; 10,69</t>
+          <t>-8,95; 9,98</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-9,88; 8,34</t>
+          <t>-11,04; 7,06</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-15,65; 3,07</t>
+          <t>-14,25; 3,06</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,87; 75,81</t>
+          <t>-7,94; 67,41</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-18,12; 24,21</t>
+          <t>-16,52; 21,64</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-23,13; 23,0</t>
+          <t>-24,87; 20,56</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-38,5; 9,84</t>
+          <t>-36,22; 8,85</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-4,01; 4,9</t>
+          <t>-4,39; 4,36</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-5,52; 4,65</t>
+          <t>-5,16; 5,12</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-7,51; 2,28</t>
+          <t>-7,11; 2,13</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 6,42</t>
+          <t>-2,29; 6,45</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-13,69; 19,6</t>
+          <t>-14,71; 16,58</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-13,53; 12,96</t>
+          <t>-12,5; 14,13</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-19,29; 6,38</t>
+          <t>-18,14; 6,14</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-11,52; 39,97</t>
+          <t>-12,54; 40,47</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P5_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P5_R-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,73</t>
+          <t>-0,49</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,59</t>
+          <t>-2,91</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-26,56</t>
+          <t>-2,32</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,39</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>7,05%</t>
+          <t>-1,53%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>12,19%</t>
+          <t>-7,75%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-53,59%</t>
+          <t>-6,05%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,07%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-21,33; 24,7</t>
+          <t>-11,27; 9,03</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-25,32; 34,4</t>
+          <t>-13,85; 9,46</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-54,5; 7,09</t>
+          <t>-12,94; 8,81</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,61; 6,37</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-61,49; 208,49</t>
+          <t>-30,11; 32,2</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-58,02; 228,85</t>
+          <t>-32,67; 28,73</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-87,99; 23,67</t>
+          <t>-30,53; 27,98</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,58; 236,47</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-1,21</t>
+          <t>-10,02</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-3,94</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,55</t>
+          <t>-4,34</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,3</t>
+          <t>5,72</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-3,55%</t>
+          <t>-29,82%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-10,16%</t>
+          <t>2,34%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>7,06%</t>
+          <t>-12,41%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>21,59%</t>
+          <t>56,57%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-12,61; 9,77</t>
+          <t>-18,03; -0,51</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-15,32; 8,45</t>
+          <t>-7,75; 9,92</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-9,74; 15,31</t>
+          <t>-12,05; 4,59</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,96; 8,01</t>
+          <t>0,16; 11,47</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-32,64; 34,17</t>
+          <t>-47,81; -1,37</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-34,56; 27,04</t>
+          <t>-23,29; 39,24</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-23,52; 52,31</t>
+          <t>-31,61; 15,08</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-49,97; 274,13</t>
+          <t>-0,34; 152,39</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-10,02</t>
+          <t>4,56</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>-2,27</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-4,34</t>
+          <t>-1,23</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,99</t>
+          <t>9,73</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-29,82%</t>
+          <t>21,77%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,34%</t>
+          <t>-6,56%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-12,41%</t>
+          <t>-3,33%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>60,0%</t>
+          <t>53,17%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-18,9; -1,19</t>
+          <t>-4,22; 13,14</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,59; 9,34</t>
+          <t>-12,47; 7,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-12,95; 3,67</t>
+          <t>-10,36; 8,32</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,97; 11,62</t>
+          <t>-5,41; 41,04</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-49,31; -3,3</t>
+          <t>-15,95; 79,09</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-25,29; 38,3</t>
+          <t>-31,13; 26,57</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-33,35; 11,68</t>
+          <t>-25,23; 25,34</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,86; 147,47</t>
+          <t>-26,99; 276,01</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,56</t>
+          <t>6,26</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-2,27</t>
+          <t>1,07</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-1,23</t>
+          <t>-1,81</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,87</t>
+          <t>-5,16</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>21,77%</t>
+          <t>25,34%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-6,56%</t>
+          <t>2,14%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-3,33%</t>
+          <t>-4,55%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>15,74%</t>
+          <t>-14,67%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 12,52</t>
+          <t>-1,75; 14,5</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-12,16; 8,36</t>
+          <t>-8,55; 11,19</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-11,37; 7,23</t>
+          <t>-10,18; 7,14</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,98; 16,34</t>
+          <t>-14,04; 3,93</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-17,46; 76,7</t>
+          <t>-6,71; 71,65</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-30,38; 27,34</t>
+          <t>-15,73; 24,74</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-26,57; 22,28</t>
+          <t>-22,69; 20,27</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-29,68; 102,96</t>
+          <t>-35,55; 12,58</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>6,26</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,07</t>
+          <t>-0,23</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,81</t>
+          <t>-2,37</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-5,77</t>
+          <t>4,11</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>25,34%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,14%</t>
+          <t>-0,59%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-4,55%</t>
+          <t>-6,35%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-16,3%</t>
+          <t>24,03%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 14,08</t>
+          <t>-4,22; 4,42</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,95; 9,98</t>
+          <t>-5,4; 4,99</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-11,04; 7,06</t>
+          <t>-7,02; 2,74</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-14,25; 3,06</t>
+          <t>-0,51; 15,42</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,94; 67,41</t>
+          <t>-14,08; 17,42</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-16,52; 21,64</t>
+          <t>-12,86; 14,08</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-24,87; 20,56</t>
+          <t>-17,94; 7,8</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-36,22; 8,85</t>
+          <t>-3,17; 94,72</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>0,17</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-0,23</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-2,37</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>1,83</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>0,6%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-0,59%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>-6,35%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>10,6%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-4,39; 4,36</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-5,16; 5,12</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-7,11; 2,13</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-2,29; 6,45</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-14,71; 16,58</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-12,5; 14,13</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-18,14; 6,14</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-12,54; 40,47</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
